--- a/excel/Unit.xlsx
+++ b/excel/Unit.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\EndlessFarm\configs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\node-xlsx-helper\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0A9810-1B89-49D0-8995-D012C8494D3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C77C70-2B16-4470-8310-43B30A36489B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,18 +83,12 @@
     <t>int256</t>
   </si>
   <si>
-    <t>@AttributeType</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
     <t>float</t>
   </si>
   <si>
-    <t>@CareerType</t>
-  </si>
-  <si>
     <t>Tank</t>
   </si>
   <si>
@@ -192,6 +186,12 @@
   </si>
   <si>
     <t>Index</t>
+  </si>
+  <si>
+    <t>AttributeType</t>
+  </si>
+  <si>
+    <t>CareerType</t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,7 +550,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -603,101 +603,101 @@
         <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="L2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="M2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="N2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
+      <c r="O2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" t="s">
-        <v>18</v>
-      </c>
       <c r="P2" s="1" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" t="s">
         <v>31</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>5</v>
@@ -706,39 +706,39 @@
         <v>6</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5">
         <v>15</v>
@@ -777,18 +777,18 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="P5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
         <v>48</v>
       </c>
-      <c r="B6" t="s">
-        <v>50</v>
-      </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6">
         <v>9</v>
@@ -827,18 +827,18 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
         <v>49</v>
       </c>
-      <c r="B7" t="s">
-        <v>51</v>
-      </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7">
         <v>7</v>
@@ -877,7 +877,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -889,13 +889,13 @@
           <x14:formula1>
             <xm:f>'@AttributeType'!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C1:C1048576</xm:sqref>
+          <xm:sqref>C5:C1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C26981EE-7107-4F7C-BF3B-DBF25E112A66}">
           <x14:formula1>
             <xm:f>'@CareerType'!$A$1:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>P1:P1048576</xm:sqref>
+          <xm:sqref>P5:P1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -918,7 +918,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -926,7 +926,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -942,7 +942,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -950,7 +950,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>16</v>
@@ -958,7 +958,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>32</v>
@@ -984,22 +984,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/excel/Unit.xlsx
+++ b/excel/Unit.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\node-xlsx-helper\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C77C70-2B16-4470-8310-43B30A36489B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79DEC26-B8CB-4460-969E-5B61B24322EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="@CareerType" sheetId="3" r:id="rId2"/>
-    <sheet name="@AttributeType" sheetId="2" r:id="rId3"/>
+    <sheet name="@Enum" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="66">
   <si>
     <t>UTID</t>
   </si>
@@ -56,18 +55,9 @@
     <t>MP</t>
   </si>
   <si>
-    <t>ATK1</t>
-  </si>
-  <si>
-    <t>ATK2</t>
-  </si>
-  <si>
     <t>Def</t>
   </si>
   <si>
-    <t>SDef</t>
-  </si>
-  <si>
     <t>Dodge</t>
   </si>
   <si>
@@ -77,9 +67,6 @@
     <t>Career</t>
   </si>
   <si>
-    <t>CritEx</t>
-  </si>
-  <si>
     <t>int256</t>
   </si>
   <si>
@@ -119,9 +106,6 @@
     <t>Intelligence</t>
   </si>
   <si>
-    <t>Default:1</t>
-  </si>
-  <si>
     <t>Default:None</t>
   </si>
   <si>
@@ -137,27 +121,15 @@
     <t>Primary Attribute</t>
   </si>
   <si>
-    <t>Attack Low</t>
-  </si>
-  <si>
-    <t>Attack High</t>
-  </si>
-  <si>
     <t>Physics Resistance</t>
   </si>
   <si>
-    <t>Magical Resistance</t>
-  </si>
-  <si>
     <t>Dodge Chance</t>
   </si>
   <si>
     <t>Critical Chance</t>
   </si>
   <si>
-    <t>Critical Damage</t>
-  </si>
-  <si>
     <t>Tank or DPS or …</t>
   </si>
   <si>
@@ -192,6 +164,72 @@
   </si>
   <si>
     <t>CareerType</t>
+  </si>
+  <si>
+    <t>Ability</t>
+  </si>
+  <si>
+    <t>int256[]</t>
+  </si>
+  <si>
+    <t>Abilities</t>
+  </si>
+  <si>
+    <t>AOwk</t>
+  </si>
+  <si>
+    <t>AOmi</t>
+  </si>
+  <si>
+    <t>AOcr</t>
+  </si>
+  <si>
+    <t>AOww</t>
+  </si>
+  <si>
+    <t>AEmb</t>
+  </si>
+  <si>
+    <t>AEim</t>
+  </si>
+  <si>
+    <t>AEme</t>
+  </si>
+  <si>
+    <t>AHwe</t>
+  </si>
+  <si>
+    <t>AHab</t>
+  </si>
+  <si>
+    <t>AHmt</t>
+  </si>
+  <si>
+    <t>Ahbz,AHfs</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>map&lt;int256,int&gt;</t>
+  </si>
+  <si>
+    <t>Items</t>
+  </si>
+  <si>
+    <t>rde2:1,rst1:2</t>
+  </si>
+  <si>
+    <t>mcou:1</t>
+  </si>
+  <si>
+    <t>Enum</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
 </sst>
 </file>
@@ -525,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,19 +576,17 @@
     <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="6.140625" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -586,118 +622,118 @@
         <v>10</v>
       </c>
       <c r="M1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="M2" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="N2" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="O2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="P2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>5</v>
@@ -706,39 +742,42 @@
         <v>6</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>15</v>
@@ -756,39 +795,42 @@
         <v>50</v>
       </c>
       <c r="I5">
-        <v>50</v>
+        <v>0.1</v>
       </c>
       <c r="J5">
-        <v>100</v>
+        <v>0.25</v>
       </c>
       <c r="K5">
         <v>0.1</v>
       </c>
-      <c r="L5">
-        <v>0.05</v>
-      </c>
-      <c r="M5">
-        <v>0.25</v>
-      </c>
-      <c r="N5">
-        <v>0.1</v>
-      </c>
-      <c r="O5">
-        <v>1.1000000000000001</v>
+      <c r="L5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" t="s">
+        <v>49</v>
       </c>
       <c r="P5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>9</v>
@@ -806,39 +848,39 @@
         <v>300</v>
       </c>
       <c r="I6">
-        <v>30</v>
+        <v>0.15</v>
       </c>
       <c r="J6">
-        <v>70</v>
+        <v>0.35</v>
       </c>
       <c r="K6">
-        <v>0.15</v>
-      </c>
-      <c r="L6">
-        <v>0.1</v>
-      </c>
-      <c r="M6">
-        <v>0.35</v>
-      </c>
-      <c r="N6">
         <v>0.2</v>
       </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D7">
         <v>7</v>
@@ -856,28 +898,28 @@
         <v>600</v>
       </c>
       <c r="I7">
-        <v>20</v>
+        <v>0.05</v>
       </c>
       <c r="J7">
-        <v>80</v>
+        <v>0.03</v>
       </c>
       <c r="K7">
         <v>0.05</v>
       </c>
-      <c r="L7">
-        <v>0.2</v>
-      </c>
-      <c r="M7">
-        <v>0.03</v>
-      </c>
-      <c r="N7">
-        <v>0.05</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
+      <c r="L7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" t="s">
+        <v>57</v>
+      </c>
+      <c r="N7" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" t="s">
+        <v>55</v>
       </c>
       <c r="P7" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -885,17 +927,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C26981EE-7107-4F7C-BF3B-DBF25E112A66}">
+          <x14:formula1>
+            <xm:f>'@Enum'!$B$2:$B$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>L5:L1048576</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0C179CD1-598A-4EB0-B269-CD0772C05604}">
           <x14:formula1>
-            <xm:f>'@AttributeType'!$A$1:$A$4</xm:f>
+            <xm:f>'@Enum'!$B$8:$B$11</xm:f>
           </x14:formula1>
           <xm:sqref>C5:C1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C26981EE-7107-4F7C-BF3B-DBF25E112A66}">
-          <x14:formula1>
-            <xm:f>'@CareerType'!$A$1:$A$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>P5:P1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -905,104 +947,130 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DEAF5C6-E569-48EA-8C60-7A8027EECDD7}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="B5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
         <v>23</v>
-      </c>
-      <c r="B6">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC8178B-9C0F-4F99-A11B-128AA791A905}">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>